--- a/src/test/resources/testdata/EasyQuoteL2.xlsx
+++ b/src/test/resources/testdata/EasyQuoteL2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="150">
   <si>
     <t>Source</t>
   </si>
@@ -177,12 +177,301 @@
   </si>
   <si>
     <t>Wu</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>195.0</t>
+  </si>
+  <si>
+    <t>9.75</t>
+  </si>
+  <si>
+    <t>204.75</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>515.0</t>
+  </si>
+  <si>
+    <t>25.75</t>
+  </si>
+  <si>
+    <t>540.75</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>36.75</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>47.25</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>67.2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>74.55</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>166.95</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>1072.0</t>
+  </si>
+  <si>
+    <t>1087.0</t>
+  </si>
+  <si>
+    <t>54.35</t>
+  </si>
+  <si>
+    <t>1141.35</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1040.0</t>
+  </si>
+  <si>
+    <t>1055.0</t>
+  </si>
+  <si>
+    <t>52.75</t>
+  </si>
+  <si>
+    <t>1107.75</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>864.0</t>
+  </si>
+  <si>
+    <t>879.0</t>
+  </si>
+  <si>
+    <t>43.95</t>
+  </si>
+  <si>
+    <t>922.95</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>9600.0</t>
+  </si>
+  <si>
+    <t>9615.0</t>
+  </si>
+  <si>
+    <t>480.75</t>
+  </si>
+  <si>
+    <t>10095.75</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>13.25</t>
+  </si>
+  <si>
+    <t>278.25</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>15.75</t>
+  </si>
+  <si>
+    <t>330.75</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>615.0</t>
+  </si>
+  <si>
+    <t>30.75</t>
+  </si>
+  <si>
+    <t>645.75</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>1215.0</t>
+  </si>
+  <si>
+    <t>60.75</t>
+  </si>
+  <si>
+    <t>1275.75</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>147.0</t>
+  </si>
+  <si>
+    <t>7.35</t>
+  </si>
+  <si>
+    <t>154.35</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>516.0</t>
+  </si>
+  <si>
+    <t>531.0</t>
+  </si>
+  <si>
+    <t>26.55</t>
+  </si>
+  <si>
+    <t>557.55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -633,13 +922,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.5703125" style="10" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="10" collapsed="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="5" style="10" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" style="10" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30">
@@ -714,11 +1003,11 @@
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9">
-        <v>180</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
+      <c r="D2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>46</v>
@@ -726,19 +1015,45 @@
       <c r="G2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -750,11 +1065,11 @@
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9">
-        <v>250</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2</v>
+      <c r="D3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>46</v>
@@ -762,19 +1077,45 @@
       <c r="G3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="28.5" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -786,11 +1127,11 @@
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12">
-        <v>5</v>
+      <c r="D4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>46</v>
@@ -798,19 +1139,45 @@
       <c r="G4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -822,11 +1189,11 @@
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12">
-        <v>5</v>
+      <c r="D5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>46</v>
@@ -834,19 +1201,45 @@
       <c r="G5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="28.5" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -858,11 +1251,11 @@
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9">
-        <v>100</v>
-      </c>
-      <c r="E6" s="12">
-        <v>5</v>
+      <c r="D6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>46</v>
@@ -870,19 +1263,45 @@
       <c r="G6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" customHeight="1">
       <c r="A7" s="7" t="s">
@@ -894,11 +1313,11 @@
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9">
-        <v>6</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5</v>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>46</v>
@@ -906,19 +1325,45 @@
       <c r="G7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="28.5" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -930,11 +1375,11 @@
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9">
-        <v>7</v>
-      </c>
-      <c r="E8" s="12">
-        <v>7</v>
+      <c r="D8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>46</v>
@@ -942,19 +1387,45 @@
       <c r="G8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="28.5" customHeight="1">
       <c r="A9" s="7" t="s">
@@ -966,11 +1437,11 @@
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="12">
-        <v>7</v>
+      <c r="D9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>46</v>
@@ -978,19 +1449,45 @@
       <c r="G9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="28.5" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -1002,11 +1499,11 @@
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12">
-        <v>16</v>
+      <c r="D10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>46</v>
@@ -1014,19 +1511,45 @@
       <c r="G10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="28.5" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -1038,11 +1561,11 @@
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9">
-        <v>67</v>
-      </c>
-      <c r="E11" s="12">
-        <v>16</v>
+      <c r="D11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>46</v>
@@ -1050,19 +1573,45 @@
       <c r="G11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="28.5" customHeight="1">
       <c r="A12" s="7" t="s">
@@ -1074,11 +1623,11 @@
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9">
-        <v>65</v>
-      </c>
-      <c r="E12" s="12">
-        <v>16</v>
+      <c r="D12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>46</v>
@@ -1086,19 +1635,45 @@
       <c r="G12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="28.5" customHeight="1">
       <c r="A13" s="7" t="s">
@@ -1110,11 +1685,11 @@
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9">
-        <v>54</v>
-      </c>
-      <c r="E13" s="12">
-        <v>16</v>
+      <c r="D13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>46</v>
@@ -1122,19 +1697,45 @@
       <c r="G13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="28.5" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1146,11 +1747,11 @@
       <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12">
-        <v>16</v>
+      <c r="D14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>46</v>
@@ -1158,19 +1759,45 @@
       <c r="G14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="28.5" customHeight="1">
       <c r="A15" s="7" t="s">
@@ -1182,11 +1809,11 @@
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="9">
-        <v>600</v>
-      </c>
-      <c r="E15" s="12">
-        <v>16</v>
+      <c r="D15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>46</v>
@@ -1194,19 +1821,45 @@
       <c r="G15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1229,11 +1882,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="11.7109375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="10" width="11.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45">
@@ -1314,11 +1967,11 @@
       <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="4">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>25</v>
+      <c r="E2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>46</v>
@@ -1326,19 +1979,45 @@
       <c r="H2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -1353,11 +2032,11 @@
       <c r="D3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3">
-        <v>25</v>
+      <c r="E3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>46</v>
@@ -1365,19 +2044,45 @@
       <c r="H3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:21" ht="28.5" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -1392,11 +2097,11 @@
       <c r="D4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>25</v>
+      <c r="E4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>46</v>
@@ -1404,19 +2109,45 @@
       <c r="H4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -1431,11 +2162,11 @@
       <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>25</v>
+      <c r="E5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>46</v>
@@ -1443,19 +2174,45 @@
       <c r="H5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -1470,11 +2227,11 @@
       <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <v>30</v>
+      <c r="E6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>46</v>
@@ -1482,19 +2239,45 @@
       <c r="H6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="28.5" customHeight="1">
       <c r="A7" s="3" t="s">
@@ -1509,11 +2292,11 @@
       <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>30</v>
+      <c r="E7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>46</v>
@@ -1521,19 +2304,45 @@
       <c r="H7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="28.5" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -1548,11 +2357,11 @@
       <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="4">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>30</v>
+      <c r="E8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>46</v>
@@ -1560,19 +2369,45 @@
       <c r="H8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="28.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1587,11 +2422,11 @@
       <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>30</v>
+      <c r="E9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>46</v>
@@ -1599,19 +2434,45 @@
       <c r="H9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="28.5" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -1626,11 +2487,11 @@
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>30</v>
+      <c r="E10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>46</v>
@@ -1638,19 +2499,45 @@
       <c r="H10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="28.5" customHeight="1">
       <c r="A11" s="3" t="s">
@@ -1665,11 +2552,11 @@
       <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3">
-        <v>60</v>
+      <c r="E11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>46</v>
@@ -1677,19 +2564,45 @@
       <c r="H11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="28.5" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -1704,11 +2617,11 @@
       <c r="D12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>60</v>
+      <c r="E12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>46</v>
@@ -1716,19 +2629,45 @@
       <c r="H12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="28.5" customHeight="1">
       <c r="A13" s="3" t="s">
@@ -1743,11 +2682,11 @@
       <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="4">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3">
-        <v>60</v>
+      <c r="E13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>46</v>
@@ -1755,19 +2694,45 @@
       <c r="H13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="28.5" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -1782,11 +2747,11 @@
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>60</v>
+      <c r="E14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>46</v>
@@ -1794,19 +2759,45 @@
       <c r="H14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="28.5" customHeight="1">
       <c r="A15" s="3" t="s">
@@ -1821,11 +2812,11 @@
       <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <v>60</v>
+      <c r="E15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>46</v>
@@ -1833,19 +2824,45 @@
       <c r="H15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="28.5" customHeight="1">
       <c r="A16" s="3" t="s">
@@ -1860,11 +2877,11 @@
       <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="4">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3">
-        <v>120</v>
+      <c r="E16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>46</v>
@@ -1872,19 +2889,45 @@
       <c r="H16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:21" ht="28.5" customHeight="1">
       <c r="A17" s="3" t="s">
@@ -1899,11 +2942,11 @@
       <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3">
-        <v>120</v>
+      <c r="E17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>46</v>
@@ -1911,19 +2954,45 @@
       <c r="H17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="28.5" customHeight="1">
       <c r="A18" s="3" t="s">
@@ -1938,11 +3007,11 @@
       <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="4">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3">
-        <v>120</v>
+      <c r="E18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>46</v>
@@ -1950,19 +3019,45 @@
       <c r="H18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="28.5" customHeight="1">
       <c r="A19" s="7" t="s">
@@ -1977,11 +3072,11 @@
       <c r="D19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="4">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3">
-        <v>12</v>
+      <c r="E19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>46</v>
@@ -1989,19 +3084,45 @@
       <c r="H19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="28.5" customHeight="1">
       <c r="A20" s="3" t="s">
@@ -2016,11 +3137,11 @@
       <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="4">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3">
-        <v>43</v>
+      <c r="E20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>46</v>
@@ -2028,19 +3149,45 @@
       <c r="H20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="28.5" customHeight="1">
       <c r="A21" s="3" t="s">
@@ -2055,11 +3202,11 @@
       <c r="D21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="4">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3">
-        <v>120</v>
+      <c r="E21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>46</v>
@@ -2067,19 +3214,45 @@
       <c r="H21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="28.5" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -2094,11 +3267,11 @@
       <c r="D22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="4">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3">
-        <v>120</v>
+      <c r="E22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>46</v>
@@ -2106,19 +3279,45 @@
       <c r="H22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
